--- a/5.Other/CK/Chiết-Khấu-tháng-04-2025.xlsx
+++ b/5.Other/CK/Chiết-Khấu-tháng-04-2025.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92EFC0B-8876-416C-B4CF-E2B538746635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE67C3A-1C59-45A4-963C-8928C0DC7CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bang Tinh CK" sheetId="1" r:id="rId1"/>
@@ -778,21 +778,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -826,14 +811,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -871,6 +862,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -879,36 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -977,6 +947,36 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,55 +1565,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="90" t="s">
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="87" t="s">
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="92" t="str">
+      <c r="E5" s="87" t="str">
         <f>'Phieu Tinh CK'!E6:H6</f>
         <v>Hà Nội, Ngày 29 Tháng 04 Năm 2025</v>
       </c>
-      <c r="F5" s="92"/>
+      <c r="F5" s="87"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -1624,13 +1624,13 @@
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="91"/>
-      <c r="E7" s="91"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1700,14 +1700,14 @@
         <v>61</v>
       </c>
       <c r="C12" s="5">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D12" s="16">
         <v>6000</v>
       </c>
       <c r="E12" s="19">
         <f t="shared" si="0"/>
-        <v>378000</v>
+        <v>390000</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>60</v>
@@ -1777,28 +1777,28 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="79"/>
+      <c r="B16" s="90"/>
       <c r="C16" s="47">
         <f>SUM(C11:C15)</f>
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="73">
         <f>SUM(E11:E15)</f>
-        <v>5828000</v>
+        <v>5840000</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -1819,14 +1819,14 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81" t="s">
+      <c r="B20" s="92"/>
+      <c r="C20" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="81"/>
+      <c r="D20" s="92"/>
       <c r="E20" s="68" t="s">
         <v>57</v>
       </c>
@@ -1835,14 +1835,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="82" t="s">
+      <c r="A21" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82" t="s">
+      <c r="B21" s="93"/>
+      <c r="C21" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="82"/>
+      <c r="D21" s="93"/>
       <c r="E21" s="39" t="s">
         <v>30</v>
       </c>
@@ -1883,14 +1883,14 @@
       <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="81"/>
-      <c r="C26" s="81" t="s">
+      <c r="B26" s="92"/>
+      <c r="C26" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="81"/>
+      <c r="D26" s="92"/>
       <c r="E26" s="68" t="s">
         <v>56</v>
       </c>
@@ -1932,13 +1932,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A20:B20"/>
@@ -1947,6 +1940,13 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.74803149606299213" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1958,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1981,62 +1981,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="95"/>
-      <c r="B1" s="95"/>
-      <c r="C1" s="87" t="s">
+      <c r="A1" s="106"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="89"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="87" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="84"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="84" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="86"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
     </row>
     <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
     </row>
     <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="103" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
@@ -2045,12 +2045,12 @@
       <c r="B6" s="18"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="105" t="s">
+      <c r="E6" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
     </row>
     <row r="7" spans="1:8" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
@@ -2071,15 +2071,15 @@
       <c r="B9" s="24"/>
       <c r="C9" s="25">
         <f>'Bang Tinh CK'!E17</f>
-        <v>5828000</v>
+        <v>5840000</v>
       </c>
       <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:8" s="17" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="101"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="25">
         <v>4</v>
       </c>
@@ -2096,10 +2096,10 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:8" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="108"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="4">
         <f>COUNTIFS(C15:C20, "&gt;=2.5",C15:C20,"&lt;7")</f>
         <v>0</v>
@@ -2146,14 +2146,14 @@
         <v>6</v>
       </c>
       <c r="C15" s="32">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="36">
         <v>100</v>
       </c>
       <c r="E15" s="19">
         <f>($C$9*D15)/$D$19</f>
-        <v>1618888.888888889</v>
+        <v>1622222.2222222222</v>
       </c>
       <c r="F15" s="16">
         <v>0</v>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="H15" s="16">
         <f>((E15-F15)+($F$21/10))-G15</f>
-        <v>1618888.888888889</v>
+        <v>1622222.2222222222</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2174,14 +2174,14 @@
         <v>35</v>
       </c>
       <c r="C16" s="32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="36">
         <v>80</v>
       </c>
       <c r="E16" s="19">
         <f>($C$9*D16)/$D$19</f>
-        <v>1295111.111111111</v>
+        <v>1297777.7777777778</v>
       </c>
       <c r="F16" s="16">
         <v>0</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="H16" s="16">
         <f>((E16-F16)+($F$21/10))-G16</f>
-        <v>1295111.111111111</v>
+        <v>1297777.7777777778</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2202,14 +2202,14 @@
         <v>62</v>
       </c>
       <c r="C17" s="32">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="36">
         <v>100</v>
       </c>
       <c r="E17" s="19">
         <f>($C$9*D17)/$D$19</f>
-        <v>1618888.888888889</v>
+        <v>1622222.2222222222</v>
       </c>
       <c r="F17" s="16">
         <v>0</v>
@@ -2219,7 +2219,7 @@
       </c>
       <c r="H17" s="16">
         <f>((E17-F17)+($F$21/10))-G17</f>
-        <v>1618888.888888889</v>
+        <v>1622222.2222222222</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="E18" s="19">
         <f>($C$9*D18)/$D$19</f>
-        <v>1295111.111111111</v>
+        <v>1297777.7777777778</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
@@ -2247,15 +2247,15 @@
       </c>
       <c r="H18" s="16">
         <f>((E18-F18)+($F$21/10))-G18</f>
-        <v>1295111.111111111</v>
+        <v>1297777.7777777778</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="102" t="s">
+      <c r="A19" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="32">
         <f>SUM(D15:D18)</f>
         <v>360</v>
@@ -2288,15 +2288,15 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="34"/>
       <c r="E21" s="21">
         <f>SUM(E15:E18)</f>
-        <v>5828000</v>
+        <v>5840000</v>
       </c>
       <c r="F21" s="21">
         <f>SUM(F15:F20)</f>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="H21" s="21">
         <f>SUM(H15:H20)</f>
-        <v>5828000</v>
+        <v>5840000</v>
       </c>
       <c r="J21" s="26"/>
     </row>
@@ -2318,10 +2318,10 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="81"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="31" t="s">
         <v>27</v>
       </c>
@@ -2330,16 +2330,16 @@
         <v>57</v>
       </c>
       <c r="F24" s="38"/>
-      <c r="G24" s="94" t="s">
+      <c r="G24" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="94"/>
+      <c r="H24" s="108"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="82" t="s">
+      <c r="A25" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="82"/>
+      <c r="B25" s="93"/>
       <c r="C25" s="39" t="s">
         <v>30</v>
       </c>
@@ -2347,10 +2347,10 @@
       <c r="E25" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="82" t="s">
+      <c r="G25" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="82"/>
+      <c r="H25" s="93"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
@@ -2369,10 +2369,10 @@
       <c r="B29" s="42"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="81"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="31" t="s">
         <v>28</v>
       </c>
@@ -2381,10 +2381,10 @@
         <v>56</v>
       </c>
       <c r="F30" s="38"/>
-      <c r="G30" s="94" t="s">
+      <c r="G30" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="94"/>
+      <c r="H30" s="108"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
@@ -2393,23 +2393,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
   <pageSetup scale="76" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
@@ -2424,7 +2424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2442,58 +2442,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123" t="s">
+      <c r="A1" s="112"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="132" t="s">
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="133"/>
+      <c r="I1" s="123"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="132" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="133"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="132" t="s">
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="133"/>
+      <c r="I3" s="123"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="145" t="s">
+      <c r="A4" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="53" t="s">
@@ -2533,27 +2533,27 @@
       <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="139" t="s">
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="140"/>
-      <c r="I8" s="141"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="135"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="125"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="58" t="s">
         <v>46</v>
       </c>
@@ -2566,9 +2566,9 @@
       <c r="F9" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="144"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="134"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="59">
@@ -2812,7 +2812,7 @@
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
       <c r="E19" s="61">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F19" s="62"/>
       <c r="G19" s="109"/>
@@ -2820,10 +2820,10 @@
       <c r="I19" s="111"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="113" t="s">
+      <c r="A20" s="141" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="114"/>
+      <c r="B20" s="142"/>
       <c r="C20" s="64">
         <f>SUM(C11:C19)</f>
         <v>1260</v>
@@ -2834,15 +2834,15 @@
       </c>
       <c r="E20" s="64">
         <f>SUM(E10:E19)</f>
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F20" s="64">
         <f>SUM(F10:F19)</f>
         <v>1034</v>
       </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="117"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="145"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
@@ -2856,23 +2856,23 @@
       <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="121" t="s">
+      <c r="B22" s="137"/>
+      <c r="C22" s="137"/>
+      <c r="D22" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="121"/>
-      <c r="F22" s="118" t="s">
+      <c r="E22" s="140"/>
+      <c r="F22" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118" t="s">
+      <c r="G22" s="137"/>
+      <c r="H22" s="137" t="s">
         <v>54</v>
       </c>
-      <c r="I22" s="118"/>
+      <c r="I22" s="137"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
@@ -2897,33 +2897,33 @@
       <c r="I24" s="65"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="120"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="120"/>
+      <c r="A25" s="138"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="71"/>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
+      <c r="E25" s="138"/>
+      <c r="F25" s="138"/>
       <c r="G25" s="65"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="120"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="138"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="112"/>
-      <c r="C26" s="112"/>
+      <c r="A26" s="139"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="139"/>
       <c r="D26" s="67"/>
       <c r="E26" s="67"/>
       <c r="F26" s="69"/>
       <c r="G26" s="69"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="112"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="112"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="139"/>
       <c r="D27" s="69" t="s">
         <v>56</v>
       </c>
@@ -2932,10 +2932,10 @@
         <v>67</v>
       </c>
       <c r="G27" s="69"/>
-      <c r="H27" s="112" t="s">
+      <c r="H27" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="I27" s="112"/>
+      <c r="I27" s="139"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
@@ -2949,40 +2949,18 @@
       <c r="I28" s="56"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
       <c r="D29" s="70"/>
       <c r="E29" s="56"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:G3"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:I9"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="H25:I25"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A20:B20"/>
@@ -2996,6 +2974,28 @@
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:G3"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:I9"/>
+    <mergeCell ref="A4:I4"/>
   </mergeCells>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
